--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_2010.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_2010.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>87.700000000000003</t>
+          <t>87.7</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>11399.040000000001</t>
+          <t>11399.04</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>343.33999999999997</t>
+          <t>343.34</t>
         </is>
       </c>
       <c r="E24" s="0" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>31902.939999999999</t>
+          <t>31902.94</t>
         </is>
       </c>
       <c r="E27" s="0" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>50034.379999999997</t>
+          <t>50034.38</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>484362.84000000003</t>
+          <t>484362.84</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>3956.0700000000002</t>
+          <t>3956.07</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>40108.360000000001</t>
+          <t>40108.36</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>188569.10000000001</t>
+          <t>188569.1</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>763.01999999999998</t>
+          <t>763.02</t>
         </is>
       </c>
       <c r="E42" s="0" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
-          <t>989.44000000000005</t>
+          <t>989.44</t>
         </is>
       </c>
       <c r="E46" s="0" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="D47" s="0" t="inlineStr">
         <is>
-          <t>4480.4200000000001</t>
+          <t>4480.42</t>
         </is>
       </c>
       <c r="E47" s="0" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>2.2799999999999998</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>859.21000000000004</t>
+          <t>859.21</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>51.520000000000003</t>
+          <t>51.52</t>
         </is>
       </c>
       <c r="E53" s="0" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>1287.6800000000001</t>
+          <t>1287.68</t>
         </is>
       </c>
       <c r="E59" s="0" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="D60" s="0" t="inlineStr">
         <is>
-          <t>3940.9499999999998</t>
+          <t>3940.95</t>
         </is>
       </c>
       <c r="E60" s="0" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="D64" s="0" t="inlineStr">
         <is>
-          <t>8380.6399999999994</t>
+          <t>8380.64</t>
         </is>
       </c>
       <c r="E64" s="0" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="D65" s="0" t="inlineStr">
         <is>
-          <t>473.23000000000002</t>
+          <t>473.23</t>
         </is>
       </c>
       <c r="E65" s="0" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>7579.9899999999998</t>
+          <t>7579.99</t>
         </is>
       </c>
       <c r="E69" s="0" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>20.640000000000001</t>
+          <t>20.64</t>
         </is>
       </c>
       <c r="E70" s="0" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>41288.389999999999</t>
+          <t>41288.39</t>
         </is>
       </c>
       <c r="E73" s="0" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>586.71000000000004</t>
+          <t>586.71</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
-          <t>67.670000000000002</t>
+          <t>67.67</t>
         </is>
       </c>
       <c r="E77" s="0" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>404609.16999999998</t>
+          <t>404609.17</t>
         </is>
       </c>
       <c r="E83" s="0" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>34539.940000000002</t>
+          <t>34539.94</t>
         </is>
       </c>
       <c r="E84" s="0" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>82007.279999999999</t>
+          <t>82007.28</t>
         </is>
       </c>
       <c r="E88" s="0" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="D90" s="0" t="inlineStr">
         <is>
-          <t>9.0600000000000005</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="E90" s="0" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>24830.830000000002</t>
+          <t>24830.83</t>
         </is>
       </c>
       <c r="E92" s="0" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="D94" s="0" t="inlineStr">
         <is>
-          <t>894.29999999999995</t>
+          <t>894.3</t>
         </is>
       </c>
       <c r="E94" s="0" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D96" s="0" t="inlineStr">
         <is>
-          <t>87158.259999999995</t>
+          <t>87158.26</t>
         </is>
       </c>
       <c r="E96" s="0" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>19122.150000000001</t>
+          <t>19122.15</t>
         </is>
       </c>
       <c r="E97" s="0" t="inlineStr">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="D99" s="0" t="inlineStr">
         <is>
-          <t>22960.299999999999</t>
+          <t>22960.3</t>
         </is>
       </c>
       <c r="E99" s="0" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>45856.410000000003</t>
+          <t>45856.41</t>
         </is>
       </c>
       <c r="E100" s="0" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>35522.089999999997</t>
+          <t>35522.09</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="D112" s="0" t="inlineStr">
         <is>
-          <t>889018.51000000001</t>
+          <t>889018.51</t>
         </is>
       </c>
       <c r="E112" s="0" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t>956937.39000000001</t>
+          <t>956937.39</t>
         </is>
       </c>
       <c r="E114" s="0" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D115" s="0" t="inlineStr">
         <is>
-          <t>236258.04999999999</t>
+          <t>236258.05</t>
         </is>
       </c>
       <c r="E115" s="0" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="D121" s="0" t="inlineStr">
         <is>
-          <t>29914.459999999999</t>
+          <t>29914.46</t>
         </is>
       </c>
       <c r="E121" s="0" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="D122" s="0" t="inlineStr">
         <is>
-          <t>51077.339999999997</t>
+          <t>51077.34</t>
         </is>
       </c>
       <c r="E122" s="0" t="inlineStr">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="D133" s="0" t="inlineStr">
         <is>
-          <t>100.98999999999999</t>
+          <t>100.99</t>
         </is>
       </c>
       <c r="E133" s="0" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D140" s="0" t="inlineStr">
         <is>
-          <t>506907.46999999997</t>
+          <t>506907.47</t>
         </is>
       </c>
       <c r="E140" s="0" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="D141" s="0" t="inlineStr">
         <is>
-          <t>4.2999999999999998</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E141" s="0" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="D143" s="0" t="inlineStr">
         <is>
-          <t>50430.379999999997</t>
+          <t>50430.38</t>
         </is>
       </c>
       <c r="E143" s="0" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
-          <t>45001.339999999997</t>
+          <t>45001.34</t>
         </is>
       </c>
       <c r="E146" s="0" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>5429789.0499999998</t>
+          <t>5429789.05</t>
         </is>
       </c>
       <c r="E156" s="0" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="D158" s="0" t="inlineStr">
         <is>
-          <t>2314068.2400000002</t>
+          <t>2314068.24</t>
         </is>
       </c>
       <c r="E158" s="0" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="D159" s="0" t="inlineStr">
         <is>
-          <t>221134.79999999999</t>
+          <t>221134.8</t>
         </is>
       </c>
       <c r="E159" s="0" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D160" s="0" t="inlineStr">
         <is>
-          <t>30092.720000000001</t>
+          <t>30092.72</t>
         </is>
       </c>
       <c r="E160" s="0" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D162" s="0" t="inlineStr">
         <is>
-          <t>197878.39999999999</t>
+          <t>197878.4</t>
         </is>
       </c>
       <c r="E162" s="0" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="D164" s="0" t="inlineStr">
         <is>
-          <t>1712532.1100000001</t>
+          <t>1712532.11</t>
         </is>
       </c>
       <c r="E164" s="0" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="D165" s="0" t="inlineStr">
         <is>
-          <t>8513.9400000000005</t>
+          <t>8513.94</t>
         </is>
       </c>
       <c r="E165" s="0" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D167" s="0" t="inlineStr">
         <is>
-          <t>2285988.5699999998</t>
+          <t>2285988.57</t>
         </is>
       </c>
       <c r="E167" s="0" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="D168" s="0" t="inlineStr">
         <is>
-          <t>546366.15000000002</t>
+          <t>546366.15</t>
         </is>
       </c>
       <c r="E168" s="0" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="D169" s="0" t="inlineStr">
         <is>
-          <t>40.079999999999998</t>
+          <t>40.08</t>
         </is>
       </c>
       <c r="E169" s="0" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="D170" s="0" t="inlineStr">
         <is>
-          <t>43611.330000000002</t>
+          <t>43611.33</t>
         </is>
       </c>
       <c r="E170" s="0" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="D171" s="0" t="inlineStr">
         <is>
-          <t>3933706.8599999999</t>
+          <t>3933706.86</t>
         </is>
       </c>
       <c r="E171" s="0" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D172" s="0" t="inlineStr">
         <is>
-          <t>508175.53999999998</t>
+          <t>508175.54</t>
         </is>
       </c>
       <c r="E172" s="0" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D174" s="0" t="inlineStr">
         <is>
-          <t>49712.760000000002</t>
+          <t>49712.76</t>
         </is>
       </c>
       <c r="E174" s="0" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="D175" s="0" t="inlineStr">
         <is>
-          <t>336160.40999999997</t>
+          <t>336160.41</t>
         </is>
       </c>
       <c r="E175" s="0" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="D176" s="0" t="inlineStr">
         <is>
-          <t>710118.80000000005</t>
+          <t>710118.8</t>
         </is>
       </c>
       <c r="E176" s="0" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="D177" s="0" t="inlineStr">
         <is>
-          <t>68780.789999999994</t>
+          <t>68780.79</t>
         </is>
       </c>
       <c r="E177" s="0" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="D178" s="0" t="inlineStr">
         <is>
-          <t>3971.9000000000001</t>
+          <t>3971.9</t>
         </is>
       </c>
       <c r="E178" s="0" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D179" s="0" t="inlineStr">
         <is>
-          <t>337702.03999999998</t>
+          <t>337702.04</t>
         </is>
       </c>
       <c r="E179" s="0" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="D181" s="0" t="inlineStr">
         <is>
-          <t>9616.8400000000001</t>
+          <t>9616.84</t>
         </is>
       </c>
       <c r="E181" s="0" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="D183" s="0" t="inlineStr">
         <is>
-          <t>15310.969999999999</t>
+          <t>15310.97</t>
         </is>
       </c>
       <c r="E183" s="0" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D184" s="0" t="inlineStr">
         <is>
-          <t>210432.67999999999</t>
+          <t>210432.68</t>
         </is>
       </c>
       <c r="E184" s="0" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="D185" s="0" t="inlineStr">
         <is>
-          <t>54158.550000000003</t>
+          <t>54158.55</t>
         </is>
       </c>
       <c r="E185" s="0" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="D187" s="0" t="inlineStr">
         <is>
-          <t>26483.630000000001</t>
+          <t>26483.63</t>
         </is>
       </c>
       <c r="E187" s="0" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="D188" s="0" t="inlineStr">
         <is>
-          <t>175153.95000000001</t>
+          <t>175153.95</t>
         </is>
       </c>
       <c r="E188" s="0" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D189" s="0" t="inlineStr">
         <is>
-          <t>535135.92000000004</t>
+          <t>535135.92</t>
         </is>
       </c>
       <c r="E189" s="0" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="D191" s="0" t="inlineStr">
         <is>
-          <t>542520.93999999994</t>
+          <t>542520.94</t>
         </is>
       </c>
       <c r="E191" s="0" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="D192" s="0" t="inlineStr">
         <is>
-          <t>1646.8199999999999</t>
+          <t>1646.82</t>
         </is>
       </c>
       <c r="E192" s="0" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="D194" s="0" t="inlineStr">
         <is>
-          <t>6490.2600000000002</t>
+          <t>6490.26</t>
         </is>
       </c>
       <c r="E194" s="0" t="inlineStr">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="D197" s="0" t="inlineStr">
         <is>
-          <t>10.789999999999999</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E197" s="0" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="D200" s="0" t="inlineStr">
         <is>
-          <t>35.659999999999997</t>
+          <t>35.66</t>
         </is>
       </c>
       <c r="E200" s="0" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="D201" s="0" t="inlineStr">
         <is>
-          <t>15823.040000000001</t>
+          <t>15823.04</t>
         </is>
       </c>
       <c r="E201" s="0" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="D204" s="0" t="inlineStr">
         <is>
-          <t>14867.120000000001</t>
+          <t>14867.12</t>
         </is>
       </c>
       <c r="E204" s="0" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="D205" s="0" t="inlineStr">
         <is>
-          <t>11.199999999999999</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="E205" s="0" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D206" s="0" t="inlineStr">
         <is>
-          <t>5.5599999999999996</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E206" s="0" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="D208" s="0" t="inlineStr">
         <is>
-          <t>7732.8299999999999</t>
+          <t>7732.83</t>
         </is>
       </c>
       <c r="E208" s="0" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="D211" s="0" t="inlineStr">
         <is>
-          <t>4171.0500000000002</t>
+          <t>4171.05</t>
         </is>
       </c>
       <c r="E211" s="0" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="D212" s="0" t="inlineStr">
         <is>
-          <t>78893.369999999995</t>
+          <t>78893.37</t>
         </is>
       </c>
       <c r="E212" s="0" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="D214" s="0" t="inlineStr">
         <is>
-          <t>30130.049999999999</t>
+          <t>30130.05</t>
         </is>
       </c>
       <c r="E214" s="0" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D216" s="0" t="inlineStr">
         <is>
-          <t>207.06999999999999</t>
+          <t>207.07</t>
         </is>
       </c>
       <c r="E216" s="0" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="D220" s="0" t="inlineStr">
         <is>
-          <t>600347.45999999996</t>
+          <t>600347.46</t>
         </is>
       </c>
       <c r="E220" s="0" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="D221" s="0" t="inlineStr">
         <is>
-          <t>30928.580000000002</t>
+          <t>30928.58</t>
         </is>
       </c>
       <c r="E221" s="0" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="D224" s="0" t="inlineStr">
         <is>
-          <t>159.08000000000001</t>
+          <t>159.08</t>
         </is>
       </c>
       <c r="E224" s="0" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="D225" s="0" t="inlineStr">
         <is>
-          <t>518.32000000000005</t>
+          <t>518.32</t>
         </is>
       </c>
       <c r="E225" s="0" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="D229" s="0" t="inlineStr">
         <is>
-          <t>55686.610000000001</t>
+          <t>55686.61</t>
         </is>
       </c>
       <c r="E229" s="0" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="D232" s="0" t="inlineStr">
         <is>
-          <t>198.06999999999999</t>
+          <t>198.07</t>
         </is>
       </c>
       <c r="E232" s="0" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="D235" s="0" t="inlineStr">
         <is>
-          <t>5532671.6100000003</t>
+          <t>5532671.61</t>
         </is>
       </c>
       <c r="E235" s="0" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="D236" s="0" t="inlineStr">
         <is>
-          <t>72975.190000000002</t>
+          <t>72975.19</t>
         </is>
       </c>
       <c r="E236" s="0" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D237" s="0" t="inlineStr">
         <is>
-          <t>25039.599999999999</t>
+          <t>25039.6</t>
         </is>
       </c>
       <c r="E237" s="0" t="inlineStr">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="D238" s="0" t="inlineStr">
         <is>
-          <t>355206.82000000001</t>
+          <t>355206.82</t>
         </is>
       </c>
       <c r="E238" s="0" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="D239" s="0" t="inlineStr">
         <is>
-          <t>6.6699999999999999</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="E239" s="0" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D244" s="0" t="inlineStr">
         <is>
-          <t>37047.949999999997</t>
+          <t>37047.95</t>
         </is>
       </c>
       <c r="E244" s="0" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="D245" s="0" t="inlineStr">
         <is>
-          <t>1285.8199999999999</t>
+          <t>1285.82</t>
         </is>
       </c>
       <c r="E245" s="0" t="inlineStr">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="D246" s="0" t="inlineStr">
         <is>
-          <t>5.5599999999999996</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E246" s="0" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="D252" s="0" t="inlineStr">
         <is>
-          <t>38.200000000000003</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="E252" s="0" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="D253" s="0" t="inlineStr">
         <is>
-          <t>6.6699999999999999</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="E253" s="0" t="inlineStr">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="D257" s="0" t="inlineStr">
         <is>
-          <t>15173.059999999999</t>
+          <t>15173.06</t>
         </is>
       </c>
       <c r="E257" s="0" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="D258" s="0" t="inlineStr">
         <is>
-          <t>167209.60999999999</t>
+          <t>167209.61</t>
         </is>
       </c>
       <c r="E258" s="0" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="D262" s="0" t="inlineStr">
         <is>
-          <t>6646.7600000000002</t>
+          <t>6646.76</t>
         </is>
       </c>
       <c r="E262" s="0" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="D265" s="0" t="inlineStr">
         <is>
-          <t>1282.3800000000001</t>
+          <t>1282.38</t>
         </is>
       </c>
       <c r="E265" s="0" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="D266" s="0" t="inlineStr">
         <is>
-          <t>26.690000000000001</t>
+          <t>26.69</t>
         </is>
       </c>
       <c r="E266" s="0" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="D273" s="0" t="inlineStr">
         <is>
-          <t>35.590000000000003</t>
+          <t>35.59</t>
         </is>
       </c>
       <c r="E273" s="0" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="D287" s="0" t="inlineStr">
         <is>
-          <t>1775516.1499999999</t>
+          <t>1775516.15</t>
         </is>
       </c>
       <c r="E287" s="0" t="inlineStr">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="D293" s="0" t="inlineStr">
         <is>
-          <t>123.01000000000001</t>
+          <t>123.01</t>
         </is>
       </c>
       <c r="E293" s="0" t="inlineStr">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="D294" s="0" t="inlineStr">
         <is>
-          <t>8.8900000000000006</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="E294" s="0" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="D297" s="0" t="inlineStr">
         <is>
-          <t>598203.56000000006</t>
+          <t>598203.56</t>
         </is>
       </c>
       <c r="E297" s="0" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="D298" s="0" t="inlineStr">
         <is>
-          <t>73390.860000000001</t>
+          <t>73390.86</t>
         </is>
       </c>
       <c r="E298" s="0" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="D300" s="0" t="inlineStr">
         <is>
-          <t>18507.459999999999</t>
+          <t>18507.46</t>
         </is>
       </c>
       <c r="E300" s="0" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="D312" s="0" t="inlineStr">
         <is>
-          <t>26632.689999999999</t>
+          <t>26632.69</t>
         </is>
       </c>
       <c r="E312" s="0" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="D314" s="0" t="inlineStr">
         <is>
-          <t>2659.0300000000002</t>
+          <t>2659.03</t>
         </is>
       </c>
       <c r="E314" s="0" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="D327" s="0" t="inlineStr">
         <is>
-          <t>140623.29999999999</t>
+          <t>140623.3</t>
         </is>
       </c>
       <c r="E327" s="0" t="inlineStr">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="D328" s="0" t="inlineStr">
         <is>
-          <t>142428.45000000001</t>
+          <t>142428.45</t>
         </is>
       </c>
       <c r="E328" s="0" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="D329" s="0" t="inlineStr">
         <is>
-          <t>17334824.870000001</t>
+          <t>17334824.87</t>
         </is>
       </c>
       <c r="E329" s="0" t="inlineStr">
@@ -9487,7 +9487,7 @@
       </c>
       <c r="D338" s="0" t="inlineStr">
         <is>
-          <t>1196.9300000000001</t>
+          <t>1196.93</t>
         </is>
       </c>
       <c r="E338" s="0" t="inlineStr">
@@ -9811,7 +9811,7 @@
       </c>
       <c r="D350" s="0" t="inlineStr">
         <is>
-          <t>2924.1500000000001</t>
+          <t>2924.15</t>
         </is>
       </c>
       <c r="E350" s="0" t="inlineStr">
@@ -9946,7 +9946,7 @@
       </c>
       <c r="D355" s="0" t="inlineStr">
         <is>
-          <t>121.81999999999999</t>
+          <t>121.82</t>
         </is>
       </c>
       <c r="E355" s="0" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="D362" s="0" t="inlineStr">
         <is>
-          <t>3534.1100000000001</t>
+          <t>3534.11</t>
         </is>
       </c>
       <c r="E362" s="0" t="inlineStr">
@@ -10189,7 +10189,7 @@
       </c>
       <c r="D364" s="0" t="inlineStr">
         <is>
-          <t>74.780000000000001</t>
+          <t>74.78</t>
         </is>
       </c>
       <c r="E364" s="0" t="inlineStr">
@@ -10324,7 +10324,7 @@
       </c>
       <c r="D369" s="0" t="inlineStr">
         <is>
-          <t>871.13999999999999</t>
+          <t>871.14</t>
         </is>
       </c>
       <c r="E369" s="0" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D370" s="0" t="inlineStr">
         <is>
-          <t>46387.029999999999</t>
+          <t>46387.03</t>
         </is>
       </c>
       <c r="E370" s="0" t="inlineStr">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="D371" s="0" t="inlineStr">
         <is>
-          <t>1123.3199999999999</t>
+          <t>1123.32</t>
         </is>
       </c>
       <c r="E371" s="0" t="inlineStr">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="D373" s="0" t="inlineStr">
         <is>
-          <t>169960.39999999999</t>
+          <t>169960.4</t>
         </is>
       </c>
       <c r="E373" s="0" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="D374" s="0" t="inlineStr">
         <is>
-          <t>23835.529999999999</t>
+          <t>23835.53</t>
         </is>
       </c>
       <c r="E374" s="0" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="D377" s="0" t="inlineStr">
         <is>
-          <t>10187.639999999999</t>
+          <t>10187.64</t>
         </is>
       </c>
       <c r="E377" s="0" t="inlineStr">
@@ -10594,7 +10594,7 @@
       </c>
       <c r="D379" s="0" t="inlineStr">
         <is>
-          <t>786689.83999999997</t>
+          <t>786689.84</t>
         </is>
       </c>
       <c r="E379" s="0" t="inlineStr">
@@ -11350,7 +11350,7 @@
       </c>
       <c r="D407" s="0" t="inlineStr">
         <is>
-          <t>110.15000000000001</t>
+          <t>110.15</t>
         </is>
       </c>
       <c r="E407" s="0" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="D429" s="0" t="inlineStr">
         <is>
-          <t>7845.3800000000001</t>
+          <t>7845.38</t>
         </is>
       </c>
       <c r="E429" s="0" t="inlineStr">
@@ -12160,7 +12160,7 @@
       </c>
       <c r="D437" s="0" t="inlineStr">
         <is>
-          <t>67.099999999999994</t>
+          <t>67.1</t>
         </is>
       </c>
       <c r="E437" s="0" t="inlineStr">
@@ -12673,7 +12673,7 @@
       </c>
       <c r="D456" s="0" t="inlineStr">
         <is>
-          <t>51.850000000000001</t>
+          <t>51.85</t>
         </is>
       </c>
       <c r="E456" s="0" t="inlineStr">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="D457" s="0" t="inlineStr">
         <is>
-          <t>87.489999999999995</t>
+          <t>87.49</t>
         </is>
       </c>
       <c r="E457" s="0" t="inlineStr">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="D462" s="0" t="inlineStr">
         <is>
-          <t>12.699999999999999</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="E462" s="0" t="inlineStr">
@@ -13942,7 +13942,7 @@
       </c>
       <c r="D503" s="0" t="inlineStr">
         <is>
-          <t>16443.830000000002</t>
+          <t>16443.83</t>
         </is>
       </c>
       <c r="E503" s="0" t="inlineStr">
@@ -13969,7 +13969,7 @@
       </c>
       <c r="D504" s="0" t="inlineStr">
         <is>
-          <t>8672.3799999999992</t>
+          <t>8672.38</t>
         </is>
       </c>
       <c r="E504" s="0" t="inlineStr">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="D505" s="0" t="inlineStr">
         <is>
-          <t>318675.96999999997</t>
+          <t>318675.97</t>
         </is>
       </c>
       <c r="E505" s="0" t="inlineStr">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="D507" s="0" t="inlineStr">
         <is>
-          <t>3250.6300000000001</t>
+          <t>3250.63</t>
         </is>
       </c>
       <c r="E507" s="0" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="D509" s="0" t="inlineStr">
         <is>
-          <t>0.34000000000000002</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E509" s="0" t="inlineStr">
@@ -14131,7 +14131,7 @@
       </c>
       <c r="D510" s="0" t="inlineStr">
         <is>
-          <t>23.100000000000001</t>
+          <t>23.1</t>
         </is>
       </c>
       <c r="E510" s="0" t="inlineStr">
@@ -14185,7 +14185,7 @@
       </c>
       <c r="D512" s="0" t="inlineStr">
         <is>
-          <t>170829.39999999999</t>
+          <t>170829.4</t>
         </is>
       </c>
       <c r="E512" s="0" t="inlineStr">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="D515" s="0" t="inlineStr">
         <is>
-          <t>6049.3100000000004</t>
+          <t>6049.31</t>
         </is>
       </c>
       <c r="E515" s="0" t="inlineStr">
@@ -14293,7 +14293,7 @@
       </c>
       <c r="D516" s="0" t="inlineStr">
         <is>
-          <t>494.76999999999998</t>
+          <t>494.77</t>
         </is>
       </c>
       <c r="E516" s="0" t="inlineStr">
@@ -14374,7 +14374,7 @@
       </c>
       <c r="D519" s="0" t="inlineStr">
         <is>
-          <t>91.920000000000002</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="E519" s="0" t="inlineStr">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="D521" s="0" t="inlineStr">
         <is>
-          <t>292.72000000000003</t>
+          <t>292.72</t>
         </is>
       </c>
       <c r="E521" s="0" t="inlineStr">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="D522" s="0" t="inlineStr">
         <is>
-          <t>879.73000000000002</t>
+          <t>879.73</t>
         </is>
       </c>
       <c r="E522" s="0" t="inlineStr">
@@ -14482,7 +14482,7 @@
       </c>
       <c r="D523" s="0" t="inlineStr">
         <is>
-          <t>1811.5699999999999</t>
+          <t>1811.57</t>
         </is>
       </c>
       <c r="E523" s="0" t="inlineStr">
@@ -14995,7 +14995,7 @@
       </c>
       <c r="D542" s="0" t="inlineStr">
         <is>
-          <t>3182.0999999999999</t>
+          <t>3182.1</t>
         </is>
       </c>
       <c r="E542" s="0" t="inlineStr">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="D551" s="0" t="inlineStr">
         <is>
-          <t>69100.130000000005</t>
+          <t>69100.13</t>
         </is>
       </c>
       <c r="E551" s="0" t="inlineStr">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="D553" s="0" t="inlineStr">
         <is>
-          <t>53428.970000000001</t>
+          <t>53428.97</t>
         </is>
       </c>
       <c r="E553" s="0" t="inlineStr">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="D575" s="0" t="inlineStr">
         <is>
-          <t>1527736.4099999999</t>
+          <t>1527736.41</t>
         </is>
       </c>
       <c r="E575" s="0" t="inlineStr">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="D582" s="0" t="inlineStr">
         <is>
-          <t>4.7599999999999998</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E582" s="0" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D587" s="0" t="inlineStr">
         <is>
-          <t>653.16999999999996</t>
+          <t>653.17</t>
         </is>
       </c>
       <c r="E587" s="0" t="inlineStr">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="D594" s="0" t="inlineStr">
         <is>
-          <t>670.71000000000004</t>
+          <t>670.71</t>
         </is>
       </c>
       <c r="E594" s="0" t="inlineStr">
@@ -16453,7 +16453,7 @@
       </c>
       <c r="D596" s="0" t="inlineStr">
         <is>
-          <t>31695.040000000001</t>
+          <t>31695.04</t>
         </is>
       </c>
       <c r="E596" s="0" t="inlineStr">
@@ -16939,7 +16939,7 @@
       </c>
       <c r="D614" s="0" t="inlineStr">
         <is>
-          <t>435.20999999999998</t>
+          <t>435.21</t>
         </is>
       </c>
       <c r="E614" s="0" t="inlineStr">
@@ -17371,7 +17371,7 @@
       </c>
       <c r="D630" s="0" t="inlineStr">
         <is>
-          <t>503.98000000000002</t>
+          <t>503.98</t>
         </is>
       </c>
       <c r="E630" s="0" t="inlineStr">
@@ -17398,7 +17398,7 @@
       </c>
       <c r="D631" s="0" t="inlineStr">
         <is>
-          <t>12737.690000000001</t>
+          <t>12737.69</t>
         </is>
       </c>
       <c r="E631" s="0" t="inlineStr">
@@ -17425,7 +17425,7 @@
       </c>
       <c r="D632" s="0" t="inlineStr">
         <is>
-          <t>38.460000000000001</t>
+          <t>38.46</t>
         </is>
       </c>
       <c r="E632" s="0" t="inlineStr">
@@ -17452,7 +17452,7 @@
       </c>
       <c r="D633" s="0" t="inlineStr">
         <is>
-          <t>341.94999999999999</t>
+          <t>341.95</t>
         </is>
       </c>
       <c r="E633" s="0" t="inlineStr">
@@ -17668,7 +17668,7 @@
       </c>
       <c r="D641" s="0" t="inlineStr">
         <is>
-          <t>2614.2800000000002</t>
+          <t>2614.28</t>
         </is>
       </c>
       <c r="E641" s="0" t="inlineStr">
@@ -17857,7 +17857,7 @@
       </c>
       <c r="D648" s="0" t="inlineStr">
         <is>
-          <t>0.34000000000000002</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E648" s="0" t="inlineStr">
@@ -18154,7 +18154,7 @@
       </c>
       <c r="D659" s="0" t="inlineStr">
         <is>
-          <t>24452.110000000001</t>
+          <t>24452.11</t>
         </is>
       </c>
       <c r="E659" s="0" t="inlineStr">
@@ -18829,7 +18829,7 @@
       </c>
       <c r="D684" s="0" t="inlineStr">
         <is>
-          <t>4414.9300000000003</t>
+          <t>4414.93</t>
         </is>
       </c>
       <c r="E684" s="0" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="D685" s="0" t="inlineStr">
         <is>
-          <t>42977.629999999997</t>
+          <t>42977.63</t>
         </is>
       </c>
       <c r="E685" s="0" t="inlineStr">
